--- a/biology/Médecine/Facteur_natriurétique_de_type_C/Facteur_natriurétique_de_type_C.xlsx
+++ b/biology/Médecine/Facteur_natriurétique_de_type_C/Facteur_natriurétique_de_type_C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_natriur%C3%A9tique_de_type_C</t>
+          <t>Facteur_natriurétique_de_type_C</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur natriurétique de type C, abrégé CNP pour « C-type natriuretic peptid », est une protéine de 22 acides aminés. Son gène est NPPC situé sur le chromosome 2 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_natriur%C3%A9tique_de_type_C</t>
+          <t>Facteur_natriurétique_de_type_C</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est exprimé essentiellement par les cellules endothéliales[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est exprimé essentiellement par les cellules endothéliales.
 Son récepteur est le NPR2.
-Outre son rôle natriurétique, il contribue à la croissance du cartilage[6].
-Au niveau de l'endothélium vasculaire, il participe à sa régulation[7], permettant une vasodilatation en activant le système NO[8] et régulant la pression artérielle en jouant sur la résistance artériolaire et capillaire[9]. Il agit au niveau du péricyte par la voie de la guanylate cyclase C, permettant une vasodilatation artériolaire[9].
+Outre son rôle natriurétique, il contribue à la croissance du cartilage.
+Au niveau de l'endothélium vasculaire, il participe à sa régulation, permettant une vasodilatation en activant le système NO et régulant la pression artérielle en jouant sur la résistance artériolaire et capillaire. Il agit au niveau du péricyte par la voie de la guanylate cyclase C, permettant une vasodilatation artériolaire.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_natriur%C3%A9tique_de_type_C</t>
+          <t>Facteur_natriurétique_de_type_C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une translocation proche du gène peut conduire à une surexpression du NPPC conduisant à un gigantisme[10].
-Le vosorotide est une molécule recombinante, analogue au NPPC, avec une demi-vie supérieure à cette dernière[11]. Il est en cours de test dans le traitement de l'achondroplasie, permettant un gain de taille des patientes[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une translocation proche du gène peut conduire à une surexpression du NPPC conduisant à un gigantisme.
+Le vosorotide est une molécule recombinante, analogue au NPPC, avec une demi-vie supérieure à cette dernière. Il est en cours de test dans le traitement de l'achondroplasie, permettant un gain de taille des patientes.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteur_natriur%C3%A9tique_de_type_C</t>
+          <t>Facteur_natriurétique_de_type_C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Peptides natriurétiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux autres peptides natriurétiques : 
 le facteur natriurétique auriculaire ou ANP ;
